--- a/biology/Botanique/Principe_de_priorité/Principe_de_priorité.xlsx
+++ b/biology/Botanique/Principe_de_priorité/Principe_de_priorité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Principe_de_priorit%C3%A9</t>
+          <t>Principe_de_priorité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La priorité est un principe fondamental de la nomenclature botanique et de la nomenclature zoologique moderne. Il s'agit essentiellement du principe de reconnaissance de la première application valide d'un nom à une plante ou à un animal. Il y a deux aspects à cela :
 Le premier nom scientifique formel donné à un taxon végétal ou animal est le nom à utiliser, appelé nom valable en zoologie et nom correct en botanique (principe de synonymie).
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Principe_de_priorit%C3%A9</t>
+          <t>Principe_de_priorité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le principe de priorité n'a pas toujours été en place. Lorsque Carl Linnaeus a jeté les bases de la nomenclature moderne, il n'a offert aucune reconnaissance des noms antérieurs. Les botanistes qui l'ont suivi étaient tout aussi disposés à renverser les noms de Linnaeus. Le premier signe de reconnaissance de la priorité est venu en 1813, lorsque A. P. de Candolle a énoncé quelques principes de bonne pratique nomenclaturale. Il était favorable au maintien des noms antérieurs, mais laissait une large marge de manœuvre pour annuler les mauvais noms antérieurs[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le principe de priorité n'a pas toujours été en place. Lorsque Carl Linnaeus a jeté les bases de la nomenclature moderne, il n'a offert aucune reconnaissance des noms antérieurs. Les botanistes qui l'ont suivi étaient tout aussi disposés à renverser les noms de Linnaeus. Le premier signe de reconnaissance de la priorité est venu en 1813, lorsque A. P. de Candolle a énoncé quelques principes de bonne pratique nomenclaturale. Il était favorable au maintien des noms antérieurs, mais laissait une large marge de manœuvre pour annuler les mauvais noms antérieurs.
 </t>
         </is>
       </c>
